--- a/dbtest.xlsx
+++ b/dbtest.xlsx
@@ -425,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Z31"/>
+  <dimension ref="A1:Z34"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -3618,6 +3618,351 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>Microsoft.PowerShell.Core\FileSystem::C:\WINDOWS\System32\WindowsPowerShell\v1.0\powershell.exe</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>Microsoft.PowerShell.Core\FileSystem::C:\WINDOWS\System32\WindowsPowerShell\v1.0</t>
+        </is>
+      </c>
+      <c r="C32" s="0" t="inlineStr">
+        <is>
+          <t>powershell.exe</t>
+        </is>
+      </c>
+      <c r="D32" s="0" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E32" s="0" t="inlineStr">
+        <is>
+          <t>Microsoft.PowerShell.Core\FileSystem</t>
+        </is>
+      </c>
+      <c r="F32" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" s="0" t="inlineStr">
+        <is>
+          <t>File:             C:\WINDOWS\System32\WindowsPowerShell\v1.0\powershell.exe_x000d_
+InternalName:     POWERSHELL_x000d_
+OriginalFilename: PowerShell.EXE.MUI_x000d_
+FileVersion:      10.0.17763.1 (WinBuild.160101.0800)_x000d_
+FileDescription:  Windows PowerShell_x000d_
+Product:          Microsoft® Windows® Operating System_x000d_
+ProductVersion:   10.0.17763.1_x000d_
+Debug:            False_x000d_
+Patched:          False_x000d_
+PreRelease:       False_x000d_
+PrivateBuild:     False_x000d_
+SpecialBuild:     False_x000d_
+Language:         English (United States)_x000d_
+</t>
+        </is>
+      </c>
+      <c r="I32" s="0" t="inlineStr">
+        <is>
+          <t>powershell</t>
+        </is>
+      </c>
+      <c r="K32" s="0" t="inlineStr">
+        <is>
+          <t>HardLink</t>
+        </is>
+      </c>
+      <c r="L32" s="0" t="inlineStr">
+        <is>
+          <t>powershell.exe</t>
+        </is>
+      </c>
+      <c r="M32" s="0">
+        <v>448000</v>
+      </c>
+      <c r="N32" s="0" t="inlineStr">
+        <is>
+          <t>C:\WINDOWS\System32\WindowsPowerShell\v1.0</t>
+        </is>
+      </c>
+      <c r="O32" s="0" t="inlineStr">
+        <is>
+          <t>C:\WINDOWS\System32\WindowsPowerShell\v1.0</t>
+        </is>
+      </c>
+      <c r="P32" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="R32" s="0" t="inlineStr">
+        <is>
+          <t>C:\WINDOWS\System32\WindowsPowerShell\v1.0\powershell.exe</t>
+        </is>
+      </c>
+      <c r="S32" s="0" t="inlineStr">
+        <is>
+          <t>.exe</t>
+        </is>
+      </c>
+      <c r="T32" s="2">
+        <v>43358.3540972222</v>
+      </c>
+      <c r="U32" s="2">
+        <v>43358.3124305556</v>
+      </c>
+      <c r="V32" s="2">
+        <v>43358.3540972222</v>
+      </c>
+      <c r="W32" s="2">
+        <v>43358.3124305556</v>
+      </c>
+      <c r="X32" s="2">
+        <v>43358.3540972222</v>
+      </c>
+      <c r="Y32" s="2">
+        <v>43358.3124305556</v>
+      </c>
+      <c r="Z32" s="0" t="inlineStr">
+        <is>
+          <t>Archive</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>Microsoft.PowerShell.Core\FileSystem::C:\WINDOWS\System32\WindowsPowerShell\v1.0\powershell.exe</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t>Microsoft.PowerShell.Core\FileSystem::C:\WINDOWS\System32\WindowsPowerShell\v1.0</t>
+        </is>
+      </c>
+      <c r="C33" s="0" t="inlineStr">
+        <is>
+          <t>powershell.exe</t>
+        </is>
+      </c>
+      <c r="D33" s="0" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E33" s="0" t="inlineStr">
+        <is>
+          <t>Microsoft.PowerShell.Core\FileSystem</t>
+        </is>
+      </c>
+      <c r="F33" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" s="0" t="inlineStr">
+        <is>
+          <t>File:             C:\WINDOWS\System32\WindowsPowerShell\v1.0\powershell.exe_x000d_
+InternalName:     POWERSHELL_x000d_
+OriginalFilename: PowerShell.EXE.MUI_x000d_
+FileVersion:      10.0.17763.1 (WinBuild.160101.0800)_x000d_
+FileDescription:  Windows PowerShell_x000d_
+Product:          Microsoft® Windows® Operating System_x000d_
+ProductVersion:   10.0.17763.1_x000d_
+Debug:            False_x000d_
+Patched:          False_x000d_
+PreRelease:       False_x000d_
+PrivateBuild:     False_x000d_
+SpecialBuild:     False_x000d_
+Language:         English (United States)_x000d_
+</t>
+        </is>
+      </c>
+      <c r="I33" s="0" t="inlineStr">
+        <is>
+          <t>powershell</t>
+        </is>
+      </c>
+      <c r="K33" s="0" t="inlineStr">
+        <is>
+          <t>HardLink</t>
+        </is>
+      </c>
+      <c r="L33" s="0" t="inlineStr">
+        <is>
+          <t>powershell.exe</t>
+        </is>
+      </c>
+      <c r="M33" s="0">
+        <v>448000</v>
+      </c>
+      <c r="N33" s="0" t="inlineStr">
+        <is>
+          <t>C:\WINDOWS\System32\WindowsPowerShell\v1.0</t>
+        </is>
+      </c>
+      <c r="O33" s="0" t="inlineStr">
+        <is>
+          <t>C:\WINDOWS\System32\WindowsPowerShell\v1.0</t>
+        </is>
+      </c>
+      <c r="P33" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="R33" s="0" t="inlineStr">
+        <is>
+          <t>C:\WINDOWS\System32\WindowsPowerShell\v1.0\powershell.exe</t>
+        </is>
+      </c>
+      <c r="S33" s="0" t="inlineStr">
+        <is>
+          <t>.exe</t>
+        </is>
+      </c>
+      <c r="T33" s="2">
+        <v>43358.3540972222</v>
+      </c>
+      <c r="U33" s="2">
+        <v>43358.3124305556</v>
+      </c>
+      <c r="V33" s="2">
+        <v>43358.3540972222</v>
+      </c>
+      <c r="W33" s="2">
+        <v>43358.3124305556</v>
+      </c>
+      <c r="X33" s="2">
+        <v>43358.3540972222</v>
+      </c>
+      <c r="Y33" s="2">
+        <v>43358.3124305556</v>
+      </c>
+      <c r="Z33" s="0" t="inlineStr">
+        <is>
+          <t>Archive</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>Microsoft.PowerShell.Core\FileSystem::C:\WINDOWS\System32\WindowsPowerShell\v1.0\powershell.exe</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t>Microsoft.PowerShell.Core\FileSystem::C:\WINDOWS\System32\WindowsPowerShell\v1.0</t>
+        </is>
+      </c>
+      <c r="C34" s="0" t="inlineStr">
+        <is>
+          <t>powershell.exe</t>
+        </is>
+      </c>
+      <c r="D34" s="0" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E34" s="0" t="inlineStr">
+        <is>
+          <t>Microsoft.PowerShell.Core\FileSystem</t>
+        </is>
+      </c>
+      <c r="F34" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" s="0" t="inlineStr">
+        <is>
+          <t>File:             C:\WINDOWS\System32\WindowsPowerShell\v1.0\powershell.exe_x000d_
+InternalName:     POWERSHELL_x000d_
+OriginalFilename: PowerShell.EXE.MUI_x000d_
+FileVersion:      10.0.17763.1 (WinBuild.160101.0800)_x000d_
+FileDescription:  Windows PowerShell_x000d_
+Product:          Microsoft® Windows® Operating System_x000d_
+ProductVersion:   10.0.17763.1_x000d_
+Debug:            False_x000d_
+Patched:          False_x000d_
+PreRelease:       False_x000d_
+PrivateBuild:     False_x000d_
+SpecialBuild:     False_x000d_
+Language:         English (United States)_x000d_
+</t>
+        </is>
+      </c>
+      <c r="I34" s="0" t="inlineStr">
+        <is>
+          <t>powershell</t>
+        </is>
+      </c>
+      <c r="K34" s="0" t="inlineStr">
+        <is>
+          <t>HardLink</t>
+        </is>
+      </c>
+      <c r="L34" s="0" t="inlineStr">
+        <is>
+          <t>powershell.exe</t>
+        </is>
+      </c>
+      <c r="M34" s="0">
+        <v>448000</v>
+      </c>
+      <c r="N34" s="0" t="inlineStr">
+        <is>
+          <t>C:\WINDOWS\System32\WindowsPowerShell\v1.0</t>
+        </is>
+      </c>
+      <c r="O34" s="0" t="inlineStr">
+        <is>
+          <t>C:\WINDOWS\System32\WindowsPowerShell\v1.0</t>
+        </is>
+      </c>
+      <c r="P34" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="R34" s="0" t="inlineStr">
+        <is>
+          <t>C:\WINDOWS\System32\WindowsPowerShell\v1.0\powershell.exe</t>
+        </is>
+      </c>
+      <c r="S34" s="0" t="inlineStr">
+        <is>
+          <t>.exe</t>
+        </is>
+      </c>
+      <c r="T34" s="2">
+        <v>43358.3540972222</v>
+      </c>
+      <c r="U34" s="2">
+        <v>43358.3124305556</v>
+      </c>
+      <c r="V34" s="2">
+        <v>43358.3540972222</v>
+      </c>
+      <c r="W34" s="2">
+        <v>43358.3124305556</v>
+      </c>
+      <c r="X34" s="2">
+        <v>43358.3540972222</v>
+      </c>
+      <c r="Y34" s="2">
+        <v>43358.3124305556</v>
+      </c>
+      <c r="Z34" s="0" t="inlineStr">
+        <is>
+          <t>Archive</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>
